--- a/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5120</v>
+        <v>5789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16695</v>
+        <v>17733</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04066523831086322</v>
+        <v>0.04066523831086323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.020186533895947</v>
+        <v>0.02282399030469369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06581875009742498</v>
+        <v>0.06990813485181537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>12450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7777</v>
+        <v>7580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19910</v>
+        <v>18235</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03423036794152932</v>
+        <v>0.03423036794152933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02138114959521401</v>
+        <v>0.02084179355644269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05474179051894581</v>
+        <v>0.05013472842083939</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -783,19 +783,19 @@
         <v>22765</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16061</v>
+        <v>15549</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31811</v>
+        <v>31262</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03687422065943321</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02601575412162179</v>
+        <v>0.02518632200164103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05152690987304487</v>
+        <v>0.05063734211203511</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>243340</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>236960</v>
+        <v>235922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248535</v>
+        <v>247866</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9593347616891368</v>
+        <v>0.9593347616891369</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.934181249902575</v>
+        <v>0.9300918651481845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.979813466104053</v>
+        <v>0.9771760096953064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>613</v>
@@ -833,19 +833,19 @@
         <v>351266</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>343806</v>
+        <v>345481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>355939</v>
+        <v>356136</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9657696320584707</v>
+        <v>0.9657696320584708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9452582094810544</v>
+        <v>0.9498652715791606</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.978618850404786</v>
+        <v>0.9791582064435572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>901</v>
@@ -854,19 +854,19 @@
         <v>594606</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585560</v>
+        <v>586109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>601310</v>
+        <v>601822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9631257793405666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9484730901269557</v>
+        <v>0.9493626578879648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9739842458783784</v>
+        <v>0.9748136779983588</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>23226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15215</v>
+        <v>14574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36402</v>
+        <v>35764</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0242064672842981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01585743165330026</v>
+        <v>0.01518924607618537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03793771472378545</v>
+        <v>0.03727319941239375</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -979,19 +979,19 @@
         <v>26449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18255</v>
+        <v>17908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39061</v>
+        <v>37531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02683754154036115</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01852350098369806</v>
+        <v>0.0181711042893394</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0396348621142667</v>
+        <v>0.03808209136465606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -1000,19 +1000,19 @@
         <v>49675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38471</v>
+        <v>37058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65778</v>
+        <v>65214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02553959541498996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01977932341880711</v>
+        <v>0.0190528712042699</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03381859545836203</v>
+        <v>0.03352868946807763</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>936284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923108</v>
+        <v>923746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>944295</v>
+        <v>944936</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.975793532715702</v>
+        <v>0.9757935327157018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9620622852762145</v>
+        <v>0.9627268005876063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9841425683466997</v>
+        <v>0.9848107539238147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1258</v>
@@ -1050,19 +1050,19 @@
         <v>959070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>946458</v>
+        <v>947988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967264</v>
+        <v>967611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9731624584596389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9603651378857332</v>
+        <v>0.9619179086353438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9814764990163019</v>
+        <v>0.9818288957106606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2070</v>
@@ -1071,19 +1071,19 @@
         <v>1895354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1879251</v>
+        <v>1879815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1906558</v>
+        <v>1907971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.97446040458501</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9661814045416381</v>
+        <v>0.9664713105319225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9802206765811929</v>
+        <v>0.9809471287957302</v>
       </c>
     </row>
     <row r="9">
@@ -1188,19 +1188,19 @@
         <v>1656</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4754</v>
+        <v>4386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00486215415920904</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001470056485335713</v>
+        <v>0.001485803170930774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01395968798489361</v>
+        <v>0.01287737711071374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1209,19 +1209,19 @@
         <v>1656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5087</v>
+        <v>4736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002407595517362595</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007338550541810434</v>
+        <v>0.0007376386816406778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007395920442319743</v>
+        <v>0.006886398649356635</v>
       </c>
     </row>
     <row r="11">
@@ -1251,19 +1251,19 @@
         <v>338910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>335812</v>
+        <v>336180</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340065</v>
+        <v>340060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.995137845840791</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9860403120151064</v>
+        <v>0.9871226228892862</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985299435146643</v>
+        <v>0.9985141968290693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>757</v>
@@ -1272,19 +1272,19 @@
         <v>686119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>682688</v>
+        <v>683039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687270</v>
+        <v>687268</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9975924044826374</v>
+        <v>0.9975924044826373</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9926040795576802</v>
+        <v>0.9931136013506433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.999266144945819</v>
+        <v>0.9992623613183593</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>33541</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23816</v>
+        <v>23865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46477</v>
+        <v>47957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02149567601498771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01526299118520421</v>
+        <v>0.01529428909527711</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02978580344776538</v>
+        <v>0.03073441951845736</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1397,19 +1397,19 @@
         <v>40555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30559</v>
+        <v>31091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54577</v>
+        <v>53804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02399982383502432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01808442348853818</v>
+        <v>0.01839894940472179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03229797896821056</v>
+        <v>0.03184067692157145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -1418,19 +1418,19 @@
         <v>74096</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59673</v>
+        <v>58915</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92384</v>
+        <v>91870</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02279760904232239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01836008638423218</v>
+        <v>0.0181267292122698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02842418846500234</v>
+        <v>0.02826609799261887</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>1526833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1513897</v>
+        <v>1512417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1536558</v>
+        <v>1536509</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9785043239850123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9702141965522345</v>
+        <v>0.9692655804815428</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9847370088147958</v>
+        <v>0.984705710904723</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2310</v>
@@ -1468,19 +1468,19 @@
         <v>1649245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1635223</v>
+        <v>1635996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1659241</v>
+        <v>1658709</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9760001761649758</v>
+        <v>0.9760001761649757</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9677020210317897</v>
+        <v>0.9681593230784292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9819155765114619</v>
+        <v>0.9816010505952786</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3728</v>
@@ -1489,19 +1489,19 @@
         <v>3176078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3157790</v>
+        <v>3158304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3190501</v>
+        <v>3191259</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9772023909576775</v>
+        <v>0.9772023909576778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9715758115349977</v>
+        <v>0.9717339020073809</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9816399136157677</v>
+        <v>0.9818732707877302</v>
       </c>
     </row>
     <row r="15">
